--- a/Code/Results/Cases/Case_9_50/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_9_50/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,1277 +421,1427 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>20.34303091252603</v>
+        <v>20.05745290082155</v>
       </c>
       <c r="C2">
-        <v>12.73057475528135</v>
+        <v>12.82664075718643</v>
       </c>
       <c r="D2">
-        <v>4.593653208953465</v>
+        <v>4.661181997491305</v>
       </c>
       <c r="E2">
-        <v>9.445650621178522</v>
+        <v>9.25176311088323</v>
       </c>
       <c r="F2">
-        <v>18.11101028346407</v>
+        <v>17.68544424859871</v>
       </c>
       <c r="G2">
-        <v>22.88229580408421</v>
+        <v>21.47765745538378</v>
       </c>
       <c r="H2">
-        <v>1.730620235237211</v>
+        <v>1.756270761292526</v>
       </c>
       <c r="I2">
-        <v>2.665317594017412</v>
+        <v>2.704901645373066</v>
       </c>
       <c r="J2">
-        <v>8.646886445461224</v>
+        <v>9.078597632298777</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>11.97447326902979</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>8.340176712537438</v>
       </c>
       <c r="N2">
-        <v>7.806722815634862</v>
+        <v>0</v>
       </c>
       <c r="O2">
         <v>0</v>
       </c>
       <c r="P2">
-        <v>12.3584333667644</v>
+        <v>7.883077641414012</v>
       </c>
       <c r="Q2">
-        <v>14.32416840182969</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R2">
+        <v>12.38808593880077</v>
+      </c>
+      <c r="S2">
+        <v>13.98787821823359</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>18.99285990402519</v>
+        <v>18.75876829240624</v>
       </c>
       <c r="C3">
-        <v>12.35663479194393</v>
+        <v>12.35776849584257</v>
       </c>
       <c r="D3">
-        <v>4.414083282516883</v>
+        <v>4.463360657401396</v>
       </c>
       <c r="E3">
-        <v>9.296765898839334</v>
+        <v>9.12573698050724</v>
       </c>
       <c r="F3">
-        <v>17.5620282029517</v>
+        <v>17.19118658325429</v>
       </c>
       <c r="G3">
-        <v>22.08973027478157</v>
+        <v>20.76840587665319</v>
       </c>
       <c r="H3">
-        <v>1.576084157696699</v>
+        <v>1.583950722512998</v>
       </c>
       <c r="I3">
-        <v>2.519389263070765</v>
+        <v>2.574443111498606</v>
       </c>
       <c r="J3">
-        <v>8.602516935497393</v>
+        <v>9.024720448908939</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>12.11064474662086</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>8.29120115691792</v>
       </c>
       <c r="N3">
-        <v>7.50812009470846</v>
+        <v>0</v>
       </c>
       <c r="O3">
         <v>0</v>
       </c>
       <c r="P3">
-        <v>12.41078539367032</v>
+        <v>7.58570574368991</v>
       </c>
       <c r="Q3">
-        <v>14.09834582152982</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R3">
+        <v>12.41359989583914</v>
+      </c>
+      <c r="S3">
+        <v>13.80206990574335</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>18.12029038582888</v>
+        <v>17.90940912951734</v>
       </c>
       <c r="C4">
-        <v>12.12157739749595</v>
+        <v>12.06283080273501</v>
       </c>
       <c r="D4">
-        <v>4.299653538929407</v>
+        <v>4.337251476248668</v>
       </c>
       <c r="E4">
-        <v>9.202532634979088</v>
+        <v>9.045737380290465</v>
       </c>
       <c r="F4">
-        <v>17.22439049189942</v>
+        <v>16.88674852854759</v>
       </c>
       <c r="G4">
-        <v>21.59897371324764</v>
+        <v>20.33081430971937</v>
       </c>
       <c r="H4">
-        <v>1.697002315217135</v>
+        <v>1.649161407275437</v>
       </c>
       <c r="I4">
-        <v>2.518320791614358</v>
+        <v>2.492099262763612</v>
       </c>
       <c r="J4">
-        <v>8.578106269609341</v>
+        <v>8.992419837683773</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>12.19561505227223</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>8.282165622082676</v>
       </c>
       <c r="N4">
-        <v>7.318748585670759</v>
+        <v>0</v>
       </c>
       <c r="O4">
         <v>0</v>
       </c>
       <c r="P4">
-        <v>12.44564544717278</v>
+        <v>7.397399134158836</v>
       </c>
       <c r="Q4">
-        <v>13.96368544358771</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R4">
+        <v>12.43240364024069</v>
+      </c>
+      <c r="S4">
+        <v>13.69111220121779</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>17.75150122715267</v>
+        <v>17.54477462516963</v>
       </c>
       <c r="C5">
-        <v>12.03028022241625</v>
+        <v>11.94732525851621</v>
       </c>
       <c r="D5">
-        <v>4.253204719572739</v>
+        <v>4.285953855478504</v>
       </c>
       <c r="E5">
-        <v>9.161445038510866</v>
+        <v>9.010553373361351</v>
       </c>
       <c r="F5">
-        <v>17.0801761123868</v>
+        <v>16.75597100289864</v>
       </c>
       <c r="G5">
-        <v>21.38600059266934</v>
+        <v>20.13978925089532</v>
       </c>
       <c r="H5">
-        <v>1.747705795444774</v>
+        <v>1.696386759334414</v>
       </c>
       <c r="I5">
-        <v>2.562001693126942</v>
+        <v>2.496204239194575</v>
       </c>
       <c r="J5">
-        <v>8.566889025048903</v>
+        <v>8.977535598027716</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>12.22615899770797</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>8.280901535242064</v>
       </c>
       <c r="N5">
-        <v>7.240725304372384</v>
+        <v>0</v>
       </c>
       <c r="O5">
         <v>0</v>
       </c>
       <c r="P5">
-        <v>12.46146854558738</v>
+        <v>7.319891409263528</v>
       </c>
       <c r="Q5">
-        <v>13.90480769048445</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R5">
+        <v>12.44187894201871</v>
+      </c>
+      <c r="S5">
+        <v>13.64172488831704</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>17.68282849714973</v>
+        <v>17.47683880719936</v>
       </c>
       <c r="C6">
-        <v>12.02215808825811</v>
+        <v>11.93582704254036</v>
       </c>
       <c r="D6">
-        <v>4.246901279240686</v>
+        <v>4.278866170292131</v>
       </c>
       <c r="E6">
-        <v>9.152149019432361</v>
+        <v>9.002312254530901</v>
       </c>
       <c r="F6">
-        <v>17.04806605853631</v>
+        <v>16.72614443695868</v>
       </c>
       <c r="G6">
-        <v>21.33562266372724</v>
+        <v>20.09288783505973</v>
       </c>
       <c r="H6">
-        <v>1.756572036704729</v>
+        <v>1.704660769201053</v>
       </c>
       <c r="I6">
-        <v>2.573426153804571</v>
+        <v>2.507736329757004</v>
       </c>
       <c r="J6">
-        <v>8.562656508666764</v>
+        <v>8.972728839079204</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>12.22584901564933</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>8.277491331489443</v>
       </c>
       <c r="N6">
-        <v>7.228403165029203</v>
+        <v>0</v>
       </c>
       <c r="O6">
         <v>0</v>
       </c>
       <c r="P6">
-        <v>12.46530393594949</v>
+        <v>7.307657840911546</v>
       </c>
       <c r="Q6">
-        <v>13.88892902339207</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R6">
+        <v>12.44477746000781</v>
+      </c>
+      <c r="S6">
+        <v>13.62749144176598</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>18.09760288400062</v>
+        <v>17.88070095044684</v>
       </c>
       <c r="C7">
-        <v>12.13966468404673</v>
+        <v>12.07728007025116</v>
       </c>
       <c r="D7">
-        <v>4.303005278686232</v>
+        <v>4.343300598685193</v>
       </c>
       <c r="E7">
-        <v>9.195397063963366</v>
+        <v>9.039326180319483</v>
       </c>
       <c r="F7">
-        <v>17.20035110135209</v>
+        <v>16.849157038317</v>
       </c>
       <c r="G7">
-        <v>21.55567198485798</v>
+        <v>20.38339535601941</v>
       </c>
       <c r="H7">
-        <v>1.698697819059468</v>
+        <v>1.651261857894398</v>
       </c>
       <c r="I7">
-        <v>2.529791477934563</v>
+        <v>2.494939710964101</v>
       </c>
       <c r="J7">
-        <v>8.571382559682515</v>
+        <v>8.944868178863448</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>12.17661582377567</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>8.268643543322817</v>
       </c>
       <c r="N7">
-        <v>7.319643772719113</v>
+        <v>0</v>
       </c>
       <c r="O7">
         <v>0</v>
       </c>
       <c r="P7">
-        <v>12.44911917512618</v>
+        <v>7.397612742207035</v>
       </c>
       <c r="Q7">
-        <v>13.94613885144574</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R7">
+        <v>12.43743192904357</v>
+      </c>
+      <c r="S7">
+        <v>13.66354966407444</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>19.86704383057237</v>
+        <v>19.57979437645168</v>
       </c>
       <c r="C8">
-        <v>12.62782650509475</v>
+        <v>12.67748015288828</v>
       </c>
       <c r="D8">
-        <v>4.537694385420629</v>
+        <v>4.607714028754331</v>
       </c>
       <c r="E8">
-        <v>9.386453517068819</v>
+        <v>9.202277832664732</v>
       </c>
       <c r="F8">
-        <v>17.89379670117518</v>
+        <v>17.44280107827029</v>
       </c>
       <c r="G8">
-        <v>22.55878599302124</v>
+        <v>21.48891870838027</v>
       </c>
       <c r="H8">
-        <v>1.666411794045168</v>
+        <v>1.695041758034702</v>
       </c>
       <c r="I8">
-        <v>2.618523104325031</v>
+        <v>2.663073725818384</v>
       </c>
       <c r="J8">
-        <v>8.622391441808741</v>
+        <v>8.918019637263505</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>11.988470107634</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>8.290840201745771</v>
       </c>
       <c r="N8">
-        <v>7.707539098689447</v>
+        <v>0</v>
       </c>
       <c r="O8">
         <v>0</v>
       </c>
       <c r="P8">
-        <v>12.38054963808196</v>
+        <v>7.782118130872807</v>
       </c>
       <c r="Q8">
-        <v>14.22379210646811</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R8">
+        <v>12.40606597012533</v>
+      </c>
+      <c r="S8">
+        <v>13.86796728257992</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>22.96131255287026</v>
+        <v>22.55271139887543</v>
       </c>
       <c r="C9">
-        <v>13.5058611408575</v>
+        <v>13.77641795372317</v>
       </c>
       <c r="D9">
-        <v>4.956887338703279</v>
+        <v>5.071111175612842</v>
       </c>
       <c r="E9">
-        <v>9.749630552386826</v>
+        <v>9.510065039325573</v>
       </c>
       <c r="F9">
-        <v>19.27867437086152</v>
+        <v>18.68162598648811</v>
       </c>
       <c r="G9">
-        <v>24.54972228816564</v>
+        <v>23.34165718655129</v>
       </c>
       <c r="H9">
-        <v>2.106561914656334</v>
+        <v>2.104063515867823</v>
       </c>
       <c r="I9">
-        <v>2.965376488138358</v>
+        <v>2.972197874943166</v>
       </c>
       <c r="J9">
-        <v>8.756916307003133</v>
+        <v>9.029776089730298</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>11.67126679484522</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <v>8.533388677139685</v>
       </c>
       <c r="N9">
-        <v>8.414153696983979</v>
+        <v>0</v>
       </c>
       <c r="O9">
         <v>0</v>
       </c>
       <c r="P9">
-        <v>12.26193989935404</v>
+        <v>8.486807111862761</v>
       </c>
       <c r="Q9">
-        <v>14.82758950225138</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R9">
+        <v>12.35833669937877</v>
+      </c>
+      <c r="S9">
+        <v>14.35987258675021</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>24.91299579863135</v>
+        <v>24.40158513097852</v>
       </c>
       <c r="C10">
-        <v>14.18984553024643</v>
+        <v>14.58379692248426</v>
       </c>
       <c r="D10">
-        <v>5.262239748258468</v>
+        <v>5.41855278690566</v>
       </c>
       <c r="E10">
-        <v>9.879846217319132</v>
+        <v>9.611277919395135</v>
       </c>
       <c r="F10">
-        <v>20.17491159827941</v>
+        <v>19.41036964142587</v>
       </c>
       <c r="G10">
-        <v>25.78496379829534</v>
+        <v>24.97506313720214</v>
       </c>
       <c r="H10">
-        <v>2.399708001631141</v>
+        <v>2.373876578828726</v>
       </c>
       <c r="I10">
-        <v>3.204230045247153</v>
+        <v>3.184147721360288</v>
       </c>
       <c r="J10">
-        <v>8.836443142543136</v>
+        <v>8.865305398800928</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>11.37639968470423</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>8.719489632332948</v>
       </c>
       <c r="N10">
-        <v>8.767299910441572</v>
+        <v>0</v>
       </c>
       <c r="O10">
         <v>0</v>
       </c>
       <c r="P10">
-        <v>12.21062306604693</v>
+        <v>8.835452956788835</v>
       </c>
       <c r="Q10">
-        <v>15.20434614901533</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R10">
+        <v>12.3712396845677</v>
+      </c>
+      <c r="S10">
+        <v>14.60403937792356</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>25.21343538900351</v>
+        <v>24.66059831092783</v>
       </c>
       <c r="C11">
-        <v>15.06701192732925</v>
+        <v>15.43722963232263</v>
       </c>
       <c r="D11">
-        <v>5.557129681913216</v>
+        <v>5.745606256398855</v>
       </c>
       <c r="E11">
-        <v>9.069271674098413</v>
+        <v>8.855442562698258</v>
       </c>
       <c r="F11">
-        <v>19.73464443247895</v>
+        <v>18.84961477819081</v>
       </c>
       <c r="G11">
-        <v>24.82494205272751</v>
+        <v>25.12106638260699</v>
       </c>
       <c r="H11">
-        <v>3.165465268402408</v>
+        <v>3.139056075147279</v>
       </c>
       <c r="I11">
-        <v>3.271486339050551</v>
+        <v>3.242952540254551</v>
       </c>
       <c r="J11">
-        <v>8.598810710045043</v>
+        <v>8.224831571913551</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>10.86170865333703</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>8.286450627876937</v>
       </c>
       <c r="N11">
-        <v>7.808321361321381</v>
+        <v>0</v>
       </c>
       <c r="O11">
         <v>0</v>
       </c>
       <c r="P11">
-        <v>12.38094472375074</v>
+        <v>7.860690850023628</v>
       </c>
       <c r="Q11">
-        <v>14.70075362495457</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R11">
+        <v>12.59051928681539</v>
+      </c>
+      <c r="S11">
+        <v>14.01279599723634</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>25.08854746694008</v>
+        <v>24.53864767095251</v>
       </c>
       <c r="C12">
-        <v>15.66566511712725</v>
+        <v>15.9948167413241</v>
       </c>
       <c r="D12">
-        <v>5.741964423222975</v>
+        <v>5.9404664397792</v>
       </c>
       <c r="E12">
-        <v>8.63398419953459</v>
+        <v>8.470578033693375</v>
       </c>
       <c r="F12">
-        <v>19.19065482882911</v>
+        <v>18.28271267712184</v>
       </c>
       <c r="G12">
-        <v>23.78702001545409</v>
+        <v>24.64722590708688</v>
       </c>
       <c r="H12">
-        <v>4.346055953500049</v>
+        <v>4.32601864777188</v>
       </c>
       <c r="I12">
-        <v>3.278531351510028</v>
+        <v>3.247617336987917</v>
       </c>
       <c r="J12">
-        <v>8.386177849916427</v>
+        <v>7.881771804996697</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>10.54003837515113</v>
       </c>
       <c r="M12">
-        <v>0</v>
+        <v>7.910800181803477</v>
       </c>
       <c r="N12">
-        <v>6.958415977414519</v>
+        <v>0</v>
       </c>
       <c r="O12">
         <v>0</v>
       </c>
       <c r="P12">
-        <v>12.5461391089874</v>
+        <v>6.999511266309348</v>
       </c>
       <c r="Q12">
-        <v>14.20848453161395</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R12">
+        <v>12.77515163011458</v>
+      </c>
+      <c r="S12">
+        <v>13.51072756820389</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>24.60502177270222</v>
+        <v>24.10472761935626</v>
       </c>
       <c r="C13">
-        <v>16.1188437730547</v>
+        <v>16.40847170672973</v>
       </c>
       <c r="D13">
-        <v>5.862016852506376</v>
+        <v>6.047496711541024</v>
       </c>
       <c r="E13">
-        <v>8.484159827975517</v>
+        <v>8.370444377415129</v>
       </c>
       <c r="F13">
-        <v>18.48941516765977</v>
+        <v>17.66384027865827</v>
       </c>
       <c r="G13">
-        <v>22.54405746929131</v>
+        <v>23.3800153261627</v>
       </c>
       <c r="H13">
-        <v>5.624940716860909</v>
+        <v>5.611484943911182</v>
       </c>
       <c r="I13">
-        <v>3.243177891553374</v>
+        <v>3.216731060665353</v>
       </c>
       <c r="J13">
-        <v>8.168778018572436</v>
+        <v>7.778271674176976</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>10.32150206426184</v>
       </c>
       <c r="M13">
-        <v>0</v>
+        <v>7.552576674136827</v>
       </c>
       <c r="N13">
-        <v>6.147465878313447</v>
+        <v>0</v>
       </c>
       <c r="O13">
         <v>0</v>
       </c>
       <c r="P13">
-        <v>12.71727940612192</v>
+        <v>6.181292495631754</v>
       </c>
       <c r="Q13">
-        <v>13.66394209071106</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R13">
+        <v>12.93714311260104</v>
+      </c>
+      <c r="S13">
+        <v>13.03991430240367</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>24.09308645024156</v>
+        <v>23.64889379256864</v>
       </c>
       <c r="C14">
-        <v>16.38116412145143</v>
+        <v>16.6440087516071</v>
       </c>
       <c r="D14">
-        <v>5.919169266350788</v>
+        <v>6.084870592136879</v>
       </c>
       <c r="E14">
-        <v>8.556140882299278</v>
+        <v>8.476012255083846</v>
       </c>
       <c r="F14">
-        <v>17.91514063266212</v>
+        <v>17.19407214583544</v>
       </c>
       <c r="G14">
-        <v>21.5582625969179</v>
+        <v>22.11837215079193</v>
       </c>
       <c r="H14">
-        <v>6.553041052465179</v>
+        <v>6.543614532640227</v>
       </c>
       <c r="I14">
-        <v>3.200400377876089</v>
+        <v>3.180452503747315</v>
       </c>
       <c r="J14">
-        <v>8.013033536745368</v>
+        <v>7.797846336704295</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>10.20776819979558</v>
       </c>
       <c r="M14">
-        <v>0</v>
+        <v>7.312348211758059</v>
       </c>
       <c r="N14">
-        <v>5.618680838812575</v>
+        <v>0</v>
       </c>
       <c r="O14">
         <v>0</v>
       </c>
       <c r="P14">
-        <v>12.8410553426104</v>
+        <v>5.649107014238196</v>
       </c>
       <c r="Q14">
-        <v>13.25311113661482</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R14">
+        <v>13.0408153592426</v>
+      </c>
+      <c r="S14">
+        <v>12.71663708062481</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>23.88417125585178</v>
+        <v>23.46298623333608</v>
       </c>
       <c r="C15">
-        <v>16.41954982459028</v>
+        <v>16.67698852184078</v>
       </c>
       <c r="D15">
-        <v>5.920426870053118</v>
+        <v>6.07674794586327</v>
       </c>
       <c r="E15">
-        <v>8.594363874498704</v>
+        <v>8.522887881554183</v>
       </c>
       <c r="F15">
-        <v>17.73473445045184</v>
+        <v>17.05918561925095</v>
       </c>
       <c r="G15">
-        <v>21.26119313582912</v>
+        <v>21.64344807446549</v>
       </c>
       <c r="H15">
-        <v>6.764716813099366</v>
+        <v>6.756542717079747</v>
       </c>
       <c r="I15">
-        <v>3.181687875311248</v>
+        <v>3.165296549029263</v>
       </c>
       <c r="J15">
-        <v>7.972662974462949</v>
+        <v>7.841493351970237</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>10.19316606204282</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>7.255053576936462</v>
       </c>
       <c r="N15">
-        <v>5.494954032160751</v>
+        <v>0</v>
       </c>
       <c r="O15">
         <v>0</v>
       </c>
       <c r="P15">
-        <v>12.87184179376612</v>
+        <v>5.525457294957213</v>
       </c>
       <c r="Q15">
-        <v>13.13761013446532</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R15">
+        <v>13.06115542502022</v>
+      </c>
+      <c r="S15">
+        <v>12.63769926342064</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>23.13803213932106</v>
+        <v>22.79583612537536</v>
       </c>
       <c r="C16">
-        <v>16.06952776273715</v>
+        <v>16.33085143851476</v>
       </c>
       <c r="D16">
-        <v>5.77818399569153</v>
+        <v>5.896288456231375</v>
       </c>
       <c r="E16">
-        <v>8.554564733979737</v>
+        <v>8.489316667656476</v>
       </c>
       <c r="F16">
-        <v>17.44559953324365</v>
+        <v>16.93613238374856</v>
       </c>
       <c r="G16">
-        <v>20.89269098245738</v>
+        <v>20.36789631042214</v>
       </c>
       <c r="H16">
-        <v>6.498876292324788</v>
+        <v>6.494735001865391</v>
       </c>
       <c r="I16">
-        <v>3.088563650909804</v>
+        <v>3.086626951973293</v>
       </c>
       <c r="J16">
-        <v>7.976052087132937</v>
+        <v>8.200306033586468</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>10.33989343441058</v>
       </c>
       <c r="M16">
-        <v>0</v>
+        <v>7.29735696438831</v>
       </c>
       <c r="N16">
-        <v>5.478135734057259</v>
+        <v>0</v>
       </c>
       <c r="O16">
         <v>0</v>
       </c>
       <c r="P16">
-        <v>12.84663223937901</v>
+        <v>5.517255599258158</v>
       </c>
       <c r="Q16">
-        <v>13.06104365191937</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R16">
+        <v>12.98926528590529</v>
+      </c>
+      <c r="S16">
+        <v>12.68652170584418</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>22.83908258292289</v>
+        <v>22.51961244158714</v>
       </c>
       <c r="C17">
-        <v>15.65228533068861</v>
+        <v>15.92251839268265</v>
       </c>
       <c r="D17">
-        <v>5.635502684936204</v>
+        <v>5.739254347878156</v>
       </c>
       <c r="E17">
-        <v>8.457029046555904</v>
+        <v>8.376588038118021</v>
       </c>
       <c r="F17">
-        <v>17.53946359905981</v>
+        <v>17.08223085416591</v>
       </c>
       <c r="G17">
-        <v>21.15369732216125</v>
+        <v>20.210387810044</v>
       </c>
       <c r="H17">
-        <v>5.753896504234046</v>
+        <v>5.751460792613608</v>
       </c>
       <c r="I17">
-        <v>3.039907668831892</v>
+        <v>3.045194607769788</v>
       </c>
       <c r="J17">
-        <v>8.062122543140529</v>
+        <v>8.432271060466562</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>10.51971055761271</v>
       </c>
       <c r="M17">
-        <v>0</v>
+        <v>7.445786373821665</v>
       </c>
       <c r="N17">
-        <v>5.73927652779897</v>
+        <v>0</v>
       </c>
       <c r="O17">
         <v>0</v>
       </c>
       <c r="P17">
-        <v>12.76325095695464</v>
+        <v>5.786150034801197</v>
       </c>
       <c r="Q17">
-        <v>13.22496368717842</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R17">
+        <v>12.88579222228159</v>
+      </c>
+      <c r="S17">
+        <v>12.88633805126408</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>22.91578157609569</v>
+        <v>22.5825264109334</v>
       </c>
       <c r="C18">
-        <v>15.12422330833243</v>
+        <v>15.41572447059892</v>
       </c>
       <c r="D18">
-        <v>5.475637827444077</v>
+        <v>5.578455652697201</v>
       </c>
       <c r="E18">
-        <v>8.459787644074336</v>
+        <v>8.341183810110946</v>
       </c>
       <c r="F18">
-        <v>17.985392213496</v>
+        <v>17.51512259777715</v>
       </c>
       <c r="G18">
-        <v>22.00912739408595</v>
+        <v>20.83884773730036</v>
       </c>
       <c r="H18">
-        <v>4.551840780874468</v>
+        <v>4.549526588850201</v>
       </c>
       <c r="I18">
-        <v>3.022738854237571</v>
+        <v>3.029057101788157</v>
       </c>
       <c r="J18">
-        <v>8.232398607454563</v>
+        <v>8.646399176887703</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>10.77219293828741</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>7.717222074350916</v>
       </c>
       <c r="N18">
-        <v>6.323593867677578</v>
+        <v>0</v>
       </c>
       <c r="O18">
         <v>0</v>
       </c>
       <c r="P18">
-        <v>12.62229918820307</v>
+        <v>6.378676877657487</v>
       </c>
       <c r="Q18">
-        <v>13.62295671521683</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R18">
+        <v>12.73863605888551</v>
+      </c>
+      <c r="S18">
+        <v>13.26885560642994</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>23.26172144008809</v>
+        <v>22.89123365775831</v>
       </c>
       <c r="C19">
-        <v>14.60504252959651</v>
+        <v>14.927961049983</v>
       </c>
       <c r="D19">
-        <v>5.324564134641972</v>
+        <v>5.434537486442697</v>
       </c>
       <c r="E19">
-        <v>8.774043153245739</v>
+        <v>8.600537805872001</v>
       </c>
       <c r="F19">
-        <v>18.6353962337711</v>
+        <v>18.11286256572164</v>
       </c>
       <c r="G19">
-        <v>23.19765865907611</v>
+        <v>21.89351847723555</v>
       </c>
       <c r="H19">
-        <v>3.225963602108587</v>
+        <v>3.221454973564671</v>
       </c>
       <c r="I19">
-        <v>3.042821993005185</v>
+        <v>3.047552809732105</v>
       </c>
       <c r="J19">
-        <v>8.446144528635799</v>
+        <v>8.84839285136491</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>11.05966304442908</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>8.057817776746205</v>
       </c>
       <c r="N19">
-        <v>7.181968949870031</v>
+        <v>0</v>
       </c>
       <c r="O19">
         <v>0</v>
       </c>
       <c r="P19">
-        <v>12.46417640425</v>
+        <v>7.245001648874659</v>
       </c>
       <c r="Q19">
-        <v>14.14812273148248</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R19">
+        <v>12.58232291456745</v>
+      </c>
+      <c r="S19">
+        <v>13.7477400718609</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>24.3717772197278</v>
+        <v>23.90445990764992</v>
       </c>
       <c r="C20">
-        <v>14.07108063610316</v>
+        <v>14.45385908012456</v>
       </c>
       <c r="D20">
-        <v>5.19539508277747</v>
+        <v>5.332655333934332</v>
       </c>
       <c r="E20">
-        <v>9.822763608976492</v>
+        <v>9.56093905977731</v>
       </c>
       <c r="F20">
-        <v>19.87673625402775</v>
+        <v>19.20045002300418</v>
       </c>
       <c r="G20">
-        <v>25.34789779224809</v>
+        <v>24.13904738277585</v>
       </c>
       <c r="H20">
-        <v>2.319628250231309</v>
+        <v>2.301280821076177</v>
       </c>
       <c r="I20">
-        <v>3.150956005888979</v>
+        <v>3.142647744598036</v>
       </c>
       <c r="J20">
-        <v>8.79361147518096</v>
+        <v>9.025517587666879</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>11.43098710423514</v>
       </c>
       <c r="M20">
-        <v>0</v>
+        <v>8.638351539676883</v>
       </c>
       <c r="N20">
-        <v>8.675470614344007</v>
+        <v>0</v>
       </c>
       <c r="O20">
         <v>0</v>
       </c>
       <c r="P20">
-        <v>12.23637595784447</v>
+        <v>8.746719085644068</v>
       </c>
       <c r="Q20">
-        <v>15.05295333455611</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R20">
+        <v>12.37531619569794</v>
+      </c>
+      <c r="S20">
+        <v>14.52340903007813</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>25.89519614211951</v>
+        <v>25.25554000241416</v>
       </c>
       <c r="C21">
-        <v>14.47794784289858</v>
+        <v>14.87353312299512</v>
       </c>
       <c r="D21">
-        <v>5.392025933180075</v>
+        <v>5.605437875874116</v>
       </c>
       <c r="E21">
-        <v>10.10731547396005</v>
+        <v>9.823707481456029</v>
       </c>
       <c r="F21">
-        <v>20.71768193015586</v>
+        <v>19.67541103564766</v>
       </c>
       <c r="G21">
-        <v>26.57011908109406</v>
+        <v>27.17006736345125</v>
       </c>
       <c r="H21">
-        <v>2.556776994513103</v>
+        <v>2.513353163600515</v>
       </c>
       <c r="I21">
-        <v>3.336913658898131</v>
+        <v>3.300172554079876</v>
       </c>
       <c r="J21">
-        <v>8.911302842004579</v>
+        <v>8.269455936148029</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>11.21424477626899</v>
       </c>
       <c r="M21">
-        <v>0</v>
+        <v>8.805949954862855</v>
       </c>
       <c r="N21">
-        <v>9.139978683947888</v>
+        <v>0</v>
       </c>
       <c r="O21">
         <v>0</v>
       </c>
       <c r="P21">
-        <v>12.17011923367768</v>
+        <v>9.199333551241962</v>
       </c>
       <c r="Q21">
-        <v>15.4749368471428</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R21">
+        <v>12.39138784152889</v>
+      </c>
+      <c r="S21">
+        <v>14.65049726743058</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>26.83032171513533</v>
+        <v>26.07955559453975</v>
       </c>
       <c r="C22">
-        <v>14.74698606310753</v>
+        <v>15.14245736094852</v>
       </c>
       <c r="D22">
-        <v>5.521177677734179</v>
+        <v>5.785410015902353</v>
       </c>
       <c r="E22">
-        <v>10.23689101172967</v>
+        <v>9.945012831381367</v>
       </c>
       <c r="F22">
-        <v>21.23651253020823</v>
+        <v>19.94718582716269</v>
       </c>
       <c r="G22">
-        <v>27.31251657920519</v>
+        <v>29.17999592536821</v>
       </c>
       <c r="H22">
-        <v>2.703265423522405</v>
+        <v>2.644010390349739</v>
       </c>
       <c r="I22">
-        <v>3.4503474886415</v>
+        <v>3.394350034495951</v>
       </c>
       <c r="J22">
-        <v>8.983283749847187</v>
+        <v>7.778845934692337</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>11.06293679908855</v>
       </c>
       <c r="M22">
-        <v>0</v>
+        <v>8.909958708724664</v>
       </c>
       <c r="N22">
-        <v>9.366181171979342</v>
+        <v>0</v>
       </c>
       <c r="O22">
         <v>0</v>
       </c>
       <c r="P22">
-        <v>12.13404928170004</v>
+        <v>9.417054763351853</v>
       </c>
       <c r="Q22">
-        <v>15.73343992596247</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R22">
+        <v>12.41322281457875</v>
+      </c>
+      <c r="S22">
+        <v>14.70639883660908</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>26.35040426363928</v>
+        <v>25.67043320046904</v>
       </c>
       <c r="C23">
-        <v>14.58357898372513</v>
+        <v>14.98869545135096</v>
       </c>
       <c r="D23">
-        <v>5.448687081731142</v>
+        <v>5.6798194988687</v>
       </c>
       <c r="E23">
-        <v>10.17477776085205</v>
+        <v>9.88518524213268</v>
       </c>
       <c r="F23">
-        <v>20.98176805933501</v>
+        <v>19.8550257385784</v>
       </c>
       <c r="G23">
-        <v>26.95599299228619</v>
+        <v>27.93784326153869</v>
       </c>
       <c r="H23">
-        <v>2.62628324286942</v>
+        <v>2.576202327038648</v>
       </c>
       <c r="I23">
-        <v>3.386632996182827</v>
+        <v>3.340345960705698</v>
       </c>
       <c r="J23">
-        <v>8.951919518168932</v>
+        <v>8.124272638690467</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>11.16396394890529</v>
       </c>
       <c r="M23">
-        <v>0</v>
+        <v>8.882512231570232</v>
       </c>
       <c r="N23">
-        <v>9.244162879108512</v>
+        <v>0</v>
       </c>
       <c r="O23">
         <v>0</v>
       </c>
       <c r="P23">
-        <v>12.14807291435173</v>
+        <v>9.300900661193044</v>
       </c>
       <c r="Q23">
-        <v>15.61289948908548</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R23">
+        <v>12.39085833073647</v>
+      </c>
+      <c r="S23">
+        <v>14.71880574794479</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>24.41917179791891</v>
+        <v>23.94900886482896</v>
       </c>
       <c r="C24">
-        <v>13.98345078511217</v>
+        <v>14.36488718498715</v>
       </c>
       <c r="D24">
-        <v>5.171544355574595</v>
+        <v>5.308783024572343</v>
       </c>
       <c r="E24">
-        <v>9.923679676705238</v>
+        <v>9.656164960559121</v>
       </c>
       <c r="F24">
-        <v>19.9729316232761</v>
+        <v>19.29323057187266</v>
       </c>
       <c r="G24">
-        <v>25.52576118807522</v>
+        <v>24.29191254441826</v>
       </c>
       <c r="H24">
-        <v>2.326813327218945</v>
+        <v>2.308277572748708</v>
       </c>
       <c r="I24">
-        <v>3.14622675835603</v>
+        <v>3.135651196356214</v>
       </c>
       <c r="J24">
-        <v>8.827479191003967</v>
+        <v>9.062653652748995</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>11.48659573100458</v>
       </c>
       <c r="M24">
-        <v>0</v>
+        <v>8.700803758252786</v>
       </c>
       <c r="N24">
-        <v>8.771070198400659</v>
+        <v>0</v>
       </c>
       <c r="O24">
         <v>0</v>
       </c>
       <c r="P24">
-        <v>12.2150335893507</v>
+        <v>8.843134192223543</v>
       </c>
       <c r="Q24">
-        <v>15.13405428144657</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R24">
+        <v>12.35215277364898</v>
+      </c>
+      <c r="S24">
+        <v>14.60090671243576</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>22.14265344602967</v>
+        <v>21.77308307867521</v>
       </c>
       <c r="C25">
-        <v>13.30664625799353</v>
+        <v>13.52883622231993</v>
       </c>
       <c r="D25">
-        <v>4.853881523768473</v>
+        <v>4.953241700519018</v>
       </c>
       <c r="E25">
-        <v>9.642797594544774</v>
+        <v>9.417708836232851</v>
       </c>
       <c r="F25">
-        <v>18.87007302195791</v>
+        <v>18.33102254856439</v>
       </c>
       <c r="G25">
-        <v>23.95166555609925</v>
+        <v>22.65426809979035</v>
       </c>
       <c r="H25">
-        <v>1.989422465838288</v>
+        <v>1.995790449947062</v>
       </c>
       <c r="I25">
-        <v>2.878357857924558</v>
+        <v>2.897484005857822</v>
       </c>
       <c r="J25">
-        <v>8.706453932147767</v>
+        <v>9.044229904082039</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>11.74072977973645</v>
       </c>
       <c r="M25">
-        <v>0</v>
+        <v>8.433803874786474</v>
       </c>
       <c r="N25">
-        <v>8.23201718819293</v>
+        <v>0</v>
       </c>
       <c r="O25">
         <v>0</v>
       </c>
       <c r="P25">
-        <v>12.298421598764</v>
+        <v>8.305846155802492</v>
       </c>
       <c r="Q25">
-        <v>14.63254730120191</v>
+        <v>0</v>
+      </c>
+      <c r="R25">
+        <v>12.37382025589833</v>
+      </c>
+      <c r="S25">
+        <v>14.21029995838532</v>
       </c>
     </row>
   </sheetData>
